--- a/wordleBestFirstGuess.xlsx
+++ b/wordleBestFirstGuess.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWNER\.spyder-py3\Wordle_Solver_3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BF4ED1-8140-479B-8929-30712841F947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77EC258-7DBE-465C-8B24-F18CCABAF73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{781CE3E0-61F3-43F9-B0BE-282967A208CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{781CE3E0-61F3-43F9-B0BE-282967A208CD}"/>
   </bookViews>
   <sheets>
     <sheet name="FullWordLists" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="86">
   <si>
     <t>1: Random</t>
   </si>
@@ -211,6 +211,90 @@
   </si>
   <si>
     <t>['centrioles', 10.425941482696732]</t>
+  </si>
+  <si>
+    <t>Worst first words</t>
+  </si>
+  <si>
+    <t>["jazzy", 31]</t>
+  </si>
+  <si>
+    <t>["qajaq",18]</t>
+  </si>
+  <si>
+    <t>["fuzzy", .3696245]</t>
+  </si>
+  <si>
+    <t>["fuzzy", 2.305734]</t>
+  </si>
+  <si>
+    <t>["immix", .417884488]</t>
+  </si>
+  <si>
+    <t>["qajaq", 1.891836]</t>
+  </si>
+  <si>
+    <t>8: MiniMax PosAnswers</t>
+  </si>
+  <si>
+    <t>9: MiniMax PosGuesses</t>
+  </si>
+  <si>
+    <t>["raise", 168]</t>
+  </si>
+  <si>
+    <t>["aloe", 401]</t>
+  </si>
+  <si>
+    <t>["eau", 466]</t>
+  </si>
+  <si>
+    <t>["salter", 572]</t>
+  </si>
+  <si>
+    <t>["pirates", 38]</t>
+  </si>
+  <si>
+    <t>["easier", 55]</t>
+  </si>
+  <si>
+    <t>["calories", 18]</t>
+  </si>
+  <si>
+    <t>["reactions", 13]</t>
+  </si>
+  <si>
+    <t>["colleagues", 11]</t>
+  </si>
+  <si>
+    <t>["celebrities", 8]</t>
+  </si>
+  <si>
+    <t>["'domesticating", 5]</t>
+  </si>
+  <si>
+    <t>["oracles", 37]</t>
+  </si>
+  <si>
+    <t>["nectaries", 10]</t>
+  </si>
+  <si>
+    <t>["entertains", 9]</t>
+  </si>
+  <si>
+    <t>["centilitres", 7]</t>
+  </si>
+  <si>
+    <t>["centuriations", 5]</t>
+  </si>
+  <si>
+    <t>["immix", 1429]</t>
+  </si>
+  <si>
+    <t>["fuzzy", 1352]</t>
+  </si>
+  <si>
+    <t>["domesticating", 5]</t>
   </si>
 </sst>
 </file>
@@ -271,8 +355,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF96876E-05F3-483C-8717-FB9BBA5F3FAE}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,16 +702,16 @@
       <c r="G1" s="1">
         <v>8</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="1">
         <v>9</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="1">
         <v>10</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="1">
         <v>11</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="1">
         <v>13</v>
       </c>
     </row>
@@ -635,16 +719,16 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -783,6 +867,52 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -791,10 +921,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6C7E61-8FC3-4F69-95C3-768DC44A19ED}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -817,16 +947,16 @@
       <c r="D1" s="1">
         <v>8</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="1">
         <v>9</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="1">
         <v>10</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="1">
         <v>11</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="1">
         <v>13</v>
       </c>
     </row>
@@ -834,13 +964,13 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -996,6 +1126,58 @@
       </c>
       <c r="H8" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1005,13 +1187,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43B5E5E-5F8B-4F59-84B3-0A2F57374DB7}">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
@@ -1033,16 +1220,16 @@
       <c r="G1" s="1">
         <v>8</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="1">
         <v>9</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="1">
         <v>10</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="1">
         <v>11</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="1">
         <v>13</v>
       </c>
       <c r="O1" s="1"/>
@@ -1055,16 +1242,16 @@
       <c r="R1" s="1">
         <v>8</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="1">
         <v>9</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="1">
         <v>10</v>
       </c>
-      <c r="U1" s="3">
+      <c r="U1" s="1">
         <v>11</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="1">
         <v>13</v>
       </c>
     </row>
@@ -1072,26 +1259,26 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="O2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1375,6 +1562,180 @@
         <v>35</v>
       </c>
     </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
